--- a/Planning Documents/ERD.xlsx
+++ b/Planning Documents/ERD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick Loose\Documents\GitHub\In-House-League\Planning Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AB32C9-C3B1-47FE-A046-8B3A9258C037}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE875CB-1E28-45B0-8BCA-9B6BFBD347EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{166A46DF-D725-4120-A398-4212A5BD5D37}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Players</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>int UserID  PK</t>
+  </si>
+  <si>
+    <t>varchar GameURL</t>
   </si>
 </sst>
 </file>
@@ -564,7 +567,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,6 +681,9 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
       <c r="E6" t="s">
         <v>29</v>
       </c>
